--- a/数据整理/stocks/A股/创业板/300790-宇瞳光学.xlsx
+++ b/数据整理/stocks/A股/创业板/300790-宇瞳光学.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1201,4 +1202,72 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.98</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.87</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300790-宇瞳光学.xlsx
+++ b/数据整理/stocks/A股/创业板/300790-宇瞳光学.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1210,7 +1211,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1221,17 +1222,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1241,14 +1262,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>10</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.98</v>
+          <t>001740</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>光大保德信中国制造2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16.15</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6137</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -1257,13 +1300,423 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>004640</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏节能环保股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4694</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010676</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>光大保德信新机遇混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2712</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>260111</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城公司治理混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1530</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008313</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>光大保德信研究精选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1491</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>360005</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>光大保德信红利混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.01</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1474</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005409</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华泰柏瑞战略新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>79.33</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0884</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010060</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景利混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>20.69</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0336</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010032</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华泰柏瑞战略新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>79.33</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010061</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景利混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>20.69</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.98</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>7</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>2.87</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300790-宇瞳光学.xlsx
+++ b/数据整理/stocks/A股/创业板/300790-宇瞳光学.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1647,7 +1648,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1658,17 +1659,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1678,14 +1699,88 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>004640</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏节能环保股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3314</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>1.95</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="3">
@@ -1694,14 +1789,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>2.98</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="4">
@@ -1710,13 +1805,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.98</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>7</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>2.87</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300790-宇瞳光学.xlsx
+++ b/数据整理/stocks/A股/创业板/300790-宇瞳光学.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1742,7 +1743,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1753,17 +1754,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1773,14 +1794,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.33</v>
+          <t>004640</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏节能环保股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.88</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3522</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1789,14 +1832,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>015060</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏节能环保股票C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.88</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>1.95</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="4">
@@ -1805,14 +1938,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>10</v>
       </c>
       <c r="D4" t="n">
-        <v>2.98</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="5">
@@ -1821,13 +1954,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>10</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.98</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>7</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>2.87</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300790-宇瞳光学.xlsx
+++ b/数据整理/stocks/A股/创业板/300790-宇瞳光学.xlsx
@@ -6,12 +6,12 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,323 +455,343 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>481010</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>工银瑞信中小盘混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>27.06</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.61</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.28</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.8876</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>5</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.36</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000793</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>工银高端制造行业股票</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>18.56</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.66</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.45</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.6403</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.33</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>481015</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>工银主题策略混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>14.57</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.68</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.63</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.5289</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.95</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001740</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>光大保德信中国制造2025灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>12.78</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>88.35</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.51</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.4486</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>6</v>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>10</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.98</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="A6" s="2" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>010676</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>光大保德信新机遇混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>4.51</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>66.02</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.76</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1696</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>008313</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>光大保德信研究精选混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>3.34</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>91.81</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.07</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1359</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>001707</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>诺安高端制造股票</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1.07</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>91.22</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>5.55</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0594</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>10</v>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>7</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.87</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004640</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏节能环保股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.88</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3522</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>015060</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏节能环保股票C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.88</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004640</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏节能环保股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3314</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -798,7 +818,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -828,36 +848,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>481010</t>
+          <t>001740</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>工银瑞信中小盘混合</t>
+          <t>光大保德信中国制造2025灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>24.70</t>
+          <t>16.15</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.45</t>
+          <t>92.07</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.6792</t>
+          <t>0.6137</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -866,32 +886,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001740</t>
+          <t>004640</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>光大保德信中国制造2025灵活配置混合</t>
+          <t>华夏节能环保股票</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>13.79</t>
+          <t>7.08</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.55</t>
+          <t>92.00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.12</t>
+          <t>6.63</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.5681</t>
+          <t>0.4694</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -904,36 +924,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>000793</t>
+          <t>010676</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>工银高端制造行业股票</t>
+          <t>光大保德信新机遇混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>16.22</t>
+          <t>5.65</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.98</t>
+          <t>94.07</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.36</t>
+          <t>4.80</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.5450</t>
+          <t>0.2712</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -942,36 +962,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>004640</t>
+          <t>260111</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华夏节能环保股票</t>
+          <t>景顺长城公司治理混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>5.86</t>
+          <t>3.51</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.48</t>
+          <t>92.27</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.97</t>
+          <t>4.36</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.3498</t>
+          <t>0.1530</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -980,36 +1000,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>010676</t>
+          <t>008313</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>光大保德信新机遇混合</t>
+          <t>光大保德信研究精选混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>5.44</t>
+          <t>2.90</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>92.91</t>
+          <t>92.89</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5.09</t>
+          <t>5.14</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.2769</t>
+          <t>0.1491</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -1018,36 +1038,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>011455</t>
+          <t>360005</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>长城竞争优势六个月持有期混合型证券投资基金A</t>
+          <t>光大保德信红利混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>12.08</t>
+          <t>5.34</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>32.24</t>
+          <t>86.01</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.08</t>
+          <t>2.76</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.2513</t>
+          <t>0.1474</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -1056,36 +1076,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>008313</t>
+          <t>005409</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>光大保德信研究精选混合</t>
+          <t>华泰柏瑞战略新兴产业混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>3.15</t>
+          <t>3.67</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>91.02</t>
+          <t>79.33</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>5.01</t>
+          <t>2.41</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.1578</t>
+          <t>0.0884</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -1094,36 +1114,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>260111</t>
+          <t>010060</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>景顺长城公司治理混合</t>
+          <t>华泰柏瑞景利混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>3.01</t>
+          <t>5.02</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>91.15</t>
+          <t>20.69</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.05</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.1219</t>
+          <t>0.0336</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -1132,36 +1152,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>011456</t>
+          <t>010032</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>长城竞争优势六个月持有期混合型证券投资基金C</t>
+          <t>华泰柏瑞战略新兴产业混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.80</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>32.24</t>
+          <t>79.33</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2.08</t>
+          <t>2.41</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0166</t>
+          <t>0.0171</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -1170,36 +1190,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>003501</t>
+          <t>010061</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>泰达宏利睿智稳健灵活配置混合</t>
+          <t>华泰柏瑞景利混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>1.48</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>86.46</t>
+          <t>20.69</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>4.96</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0129</t>
+          <t>0.0099</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1207,7 +1227,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1234,7 +1254,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1264,36 +1284,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001740</t>
+          <t>481010</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>光大保德信中国制造2025灵活配置混合</t>
+          <t>工银瑞信中小盘混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>16.15</t>
+          <t>24.70</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.07</t>
+          <t>94.45</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.6137</t>
+          <t>0.6792</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1302,32 +1322,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004640</t>
+          <t>001740</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华夏节能环保股票</t>
+          <t>光大保德信中国制造2025灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>7.08</t>
+          <t>13.79</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.00</t>
+          <t>92.55</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6.63</t>
+          <t>4.12</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.4694</t>
+          <t>0.5681</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1340,36 +1360,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010676</t>
+          <t>000793</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>光大保德信新机遇混合</t>
+          <t>工银高端制造行业股票</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>5.65</t>
+          <t>16.22</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.07</t>
+          <t>94.98</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.80</t>
+          <t>3.36</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2712</t>
+          <t>0.5450</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1378,36 +1398,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>260111</t>
+          <t>004640</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>景顺长城公司治理混合</t>
+          <t>华夏节能环保股票</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3.51</t>
+          <t>5.86</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>92.27</t>
+          <t>93.48</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.36</t>
+          <t>5.97</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1530</t>
+          <t>0.3498</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -1416,36 +1436,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>008313</t>
+          <t>010676</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>光大保德信研究精选混合</t>
+          <t>光大保德信新机遇混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.90</t>
+          <t>5.44</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>92.89</t>
+          <t>92.91</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5.14</t>
+          <t>5.09</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1491</t>
+          <t>0.2769</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -1454,36 +1474,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>360005</t>
+          <t>011455</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>光大保德信红利混合</t>
+          <t>长城竞争优势六个月持有期混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>5.34</t>
+          <t>12.08</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>86.01</t>
+          <t>32.24</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.76</t>
+          <t>2.08</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.1474</t>
+          <t>0.2513</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -1492,36 +1512,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>005409</t>
+          <t>008313</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>华泰柏瑞战略新兴产业混合A</t>
+          <t>光大保德信研究精选混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>3.67</t>
+          <t>3.15</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>79.33</t>
+          <t>91.02</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.41</t>
+          <t>5.01</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0884</t>
+          <t>0.1578</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -1530,36 +1550,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>010060</t>
+          <t>260111</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>华泰柏瑞景利混合A</t>
+          <t>景顺长城公司治理混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>5.02</t>
+          <t>3.01</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>20.69</t>
+          <t>91.15</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0.67</t>
+          <t>4.05</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0336</t>
+          <t>0.1219</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -1568,36 +1588,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>010032</t>
+          <t>011456</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>华泰柏瑞战略新兴产业混合C</t>
+          <t>长城竞争优势六个月持有期混合型证券投资基金C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>0.80</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>79.33</t>
+          <t>32.24</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2.41</t>
+          <t>2.08</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0171</t>
+          <t>0.0166</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -1606,262 +1626,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>010061</t>
+          <t>003501</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>华泰柏瑞景利混合C</t>
+          <t>泰达宏利睿智稳健灵活配置混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1.48</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>20.69</t>
+          <t>86.46</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0.67</t>
+          <t>4.96</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0099</t>
+          <t>0.0129</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>004640</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华夏节能环保股票</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>5.45</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>90.73</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>6.08</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.3314</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>004640</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华夏节能环保股票</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>5.90</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>92.88</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.97</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.3522</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
         <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>015060</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华夏节能环保股票C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.88</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.97</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0036</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1875,112 +1669,318 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>481010</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银瑞信中小盘混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>27.06</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8876</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000793</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银高端制造行业股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>18.56</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6403</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.36</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>481015</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银主题策略混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>14.57</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5289</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001740</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>光大保德信中国制造2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.78</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.35</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4486</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010676</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>光大保德信新机遇混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>66.02</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1696</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008313</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>光大保德信研究精选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1359</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001707</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>诺安高端制造股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0594</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>10</v>
       </c>
-      <c r="D4" t="n">
-        <v>1.95</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>10</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.98</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>7</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2.87</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300790-宇瞳光学.xlsx
+++ b/数据整理/stocks/A股/创业板/300790-宇瞳光学.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>0.36</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.33</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>1.95</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>10</v>
       </c>
       <c r="D5" t="n">
-        <v>2.98</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>10</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.98</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>7</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>2.87</v>
       </c>
     </row>
@@ -566,6 +583,290 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>012703</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2831</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004640</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏节能环保股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2803</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>015229</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏低碳经济一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1003</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>015230</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏低碳经济一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0411</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012710</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0350</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>015060</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏节能环保股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -697,7 +998,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -784,442 +1085,6 @@
       </c>
       <c r="H2" t="n">
         <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>001740</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>光大保德信中国制造2025灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>16.15</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>92.07</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.80</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.6137</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>004640</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华夏节能环保股票</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>7.08</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.00</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>6.63</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.4694</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>010676</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>光大保德信新机遇混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>5.65</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.07</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.80</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.2712</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>260111</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>景顺长城公司治理混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>3.51</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>92.27</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.36</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1530</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>008313</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>光大保德信研究精选混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2.90</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>92.89</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>5.14</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1491</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>360005</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>光大保德信红利混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>5.34</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>86.01</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.76</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1474</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>005409</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>华泰柏瑞战略新兴产业混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>3.67</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>79.33</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.41</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0884</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>010060</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>华泰柏瑞景利混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>5.02</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>20.69</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0.67</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0336</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>010032</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>华泰柏瑞战略新兴产业混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.71</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>79.33</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2.41</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0171</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>010061</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>华泰柏瑞景利混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>1.48</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>20.69</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>0.67</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0099</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1254,7 +1119,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1284,36 +1149,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>481010</t>
+          <t>001740</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>工银瑞信中小盘混合</t>
+          <t>光大保德信中国制造2025灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>24.70</t>
+          <t>16.15</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.45</t>
+          <t>92.07</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.6792</t>
+          <t>0.6137</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -1322,32 +1187,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001740</t>
+          <t>004640</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>光大保德信中国制造2025灵活配置混合</t>
+          <t>华夏节能环保股票</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>13.79</t>
+          <t>7.08</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.55</t>
+          <t>92.00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.12</t>
+          <t>6.63</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.5681</t>
+          <t>0.4694</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1360,36 +1225,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>000793</t>
+          <t>010676</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>工银高端制造行业股票</t>
+          <t>光大保德信新机遇混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>16.22</t>
+          <t>5.65</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.98</t>
+          <t>94.07</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.36</t>
+          <t>4.80</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.5450</t>
+          <t>0.2712</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -1398,36 +1263,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>004640</t>
+          <t>260111</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华夏节能环保股票</t>
+          <t>景顺长城公司治理混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>5.86</t>
+          <t>3.51</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.48</t>
+          <t>92.27</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.97</t>
+          <t>4.36</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.3498</t>
+          <t>0.1530</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -1436,36 +1301,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>010676</t>
+          <t>008313</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>光大保德信新机遇混合</t>
+          <t>光大保德信研究精选混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>5.44</t>
+          <t>2.90</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>92.91</t>
+          <t>92.89</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5.09</t>
+          <t>5.14</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.2769</t>
+          <t>0.1491</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -1474,36 +1339,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>011455</t>
+          <t>360005</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>长城竞争优势六个月持有期混合型证券投资基金A</t>
+          <t>光大保德信红利混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>12.08</t>
+          <t>5.34</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>32.24</t>
+          <t>86.01</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.08</t>
+          <t>2.76</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.2513</t>
+          <t>0.1474</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -1512,36 +1377,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>008313</t>
+          <t>005409</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>光大保德信研究精选混合</t>
+          <t>华泰柏瑞战略新兴产业混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>3.15</t>
+          <t>3.67</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>91.02</t>
+          <t>79.33</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>5.01</t>
+          <t>2.41</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.1578</t>
+          <t>0.0884</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -1550,36 +1415,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>260111</t>
+          <t>010060</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>景顺长城公司治理混合</t>
+          <t>华泰柏瑞景利混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>3.01</t>
+          <t>5.02</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>91.15</t>
+          <t>20.69</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.05</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.1219</t>
+          <t>0.0336</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -1588,36 +1453,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>011456</t>
+          <t>010032</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>长城竞争优势六个月持有期混合型证券投资基金C</t>
+          <t>华泰柏瑞战略新兴产业混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.80</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>32.24</t>
+          <t>79.33</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2.08</t>
+          <t>2.41</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0166</t>
+          <t>0.0171</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -1626,36 +1491,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>003501</t>
+          <t>010061</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>泰达宏利睿智稳健灵活配置混合</t>
+          <t>华泰柏瑞景利混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>1.48</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>86.46</t>
+          <t>20.69</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>4.96</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0129</t>
+          <t>0.0099</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1664,6 +1529,442 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>481010</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银瑞信中小盘混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>24.70</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6792</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001740</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>光大保德信中国制造2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.79</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5681</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000793</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银高端制造行业股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>16.22</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.98</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5450</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004640</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏节能环保股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3498</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010676</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>光大保德信新机遇混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2769</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011455</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长城竞争优势六个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12.08</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>32.24</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2513</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008313</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>光大保德信研究精选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1578</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>260111</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>景顺长城公司治理混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.15</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1219</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011456</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>长城竞争优势六个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>32.24</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003501</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>泰达宏利睿智稳健灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>86.46</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/创业板/300790-宇瞳光学.xlsx
+++ b/数据整理/stocks/A股/创业板/300790-宇瞳光学.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>0.75</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>0.36</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.33</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>1.95</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>10</v>
       </c>
       <c r="D6" t="n">
-        <v>2.98</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>10</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2.98</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>7</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>2.87</v>
       </c>
     </row>
@@ -583,6 +600,214 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>012703</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2687</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004640</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏节能环保股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2612</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>012710</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0327</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>015060</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏节能环保股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -866,7 +1091,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -998,7 +1223,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1085,442 +1310,6 @@
       </c>
       <c r="H2" t="n">
         <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>001740</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>光大保德信中国制造2025灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>16.15</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>92.07</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.80</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.6137</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>004640</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华夏节能环保股票</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>7.08</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.00</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>6.63</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.4694</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>010676</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>光大保德信新机遇混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>5.65</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.07</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.80</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.2712</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>260111</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>景顺长城公司治理混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>3.51</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>92.27</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.36</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1530</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>008313</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>光大保德信研究精选混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2.90</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>92.89</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>5.14</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1491</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>360005</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>光大保德信红利混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>5.34</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>86.01</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.76</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1474</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>005409</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>华泰柏瑞战略新兴产业混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>3.67</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>79.33</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.41</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0884</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>010060</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>华泰柏瑞景利混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>5.02</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>20.69</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0.67</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0336</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>010032</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>华泰柏瑞战略新兴产业混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.71</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>79.33</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2.41</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0171</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>010061</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>华泰柏瑞景利混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>1.48</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>20.69</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>0.67</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0099</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1555,7 +1344,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1585,36 +1374,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>481010</t>
+          <t>001740</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>工银瑞信中小盘混合</t>
+          <t>光大保德信中国制造2025灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>24.70</t>
+          <t>16.15</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.45</t>
+          <t>92.07</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.6792</t>
+          <t>0.6137</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -1623,32 +1412,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001740</t>
+          <t>004640</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>光大保德信中国制造2025灵活配置混合</t>
+          <t>华夏节能环保股票</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>13.79</t>
+          <t>7.08</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.55</t>
+          <t>92.00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.12</t>
+          <t>6.63</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.5681</t>
+          <t>0.4694</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1661,36 +1450,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>000793</t>
+          <t>010676</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>工银高端制造行业股票</t>
+          <t>光大保德信新机遇混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>16.22</t>
+          <t>5.65</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.98</t>
+          <t>94.07</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.36</t>
+          <t>4.80</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.5450</t>
+          <t>0.2712</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -1699,36 +1488,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>004640</t>
+          <t>260111</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华夏节能环保股票</t>
+          <t>景顺长城公司治理混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>5.86</t>
+          <t>3.51</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.48</t>
+          <t>92.27</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.97</t>
+          <t>4.36</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.3498</t>
+          <t>0.1530</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -1737,36 +1526,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>010676</t>
+          <t>008313</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>光大保德信新机遇混合</t>
+          <t>光大保德信研究精选混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>5.44</t>
+          <t>2.90</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>92.91</t>
+          <t>92.89</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5.09</t>
+          <t>5.14</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.2769</t>
+          <t>0.1491</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -1775,36 +1564,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>011455</t>
+          <t>360005</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>长城竞争优势六个月持有期混合型证券投资基金A</t>
+          <t>光大保德信红利混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>12.08</t>
+          <t>5.34</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>32.24</t>
+          <t>86.01</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.08</t>
+          <t>2.76</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.2513</t>
+          <t>0.1474</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -1813,36 +1602,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>008313</t>
+          <t>005409</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>光大保德信研究精选混合</t>
+          <t>华泰柏瑞战略新兴产业混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>3.15</t>
+          <t>3.67</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>91.02</t>
+          <t>79.33</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>5.01</t>
+          <t>2.41</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.1578</t>
+          <t>0.0884</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -1851,36 +1640,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>260111</t>
+          <t>010060</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>景顺长城公司治理混合</t>
+          <t>华泰柏瑞景利混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>3.01</t>
+          <t>5.02</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>91.15</t>
+          <t>20.69</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.05</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.1219</t>
+          <t>0.0336</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -1889,36 +1678,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>011456</t>
+          <t>010032</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>长城竞争优势六个月持有期混合型证券投资基金C</t>
+          <t>华泰柏瑞战略新兴产业混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.80</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>32.24</t>
+          <t>79.33</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2.08</t>
+          <t>2.41</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0166</t>
+          <t>0.0171</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -1927,36 +1716,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>003501</t>
+          <t>010061</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>泰达宏利睿智稳健灵活配置混合</t>
+          <t>华泰柏瑞景利混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>1.48</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>86.46</t>
+          <t>20.69</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>4.96</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0129</t>
+          <t>0.0099</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1965,6 +1754,442 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>481010</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银瑞信中小盘混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>24.70</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6792</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001740</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>光大保德信中国制造2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.79</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5681</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000793</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银高端制造行业股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>16.22</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.98</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5450</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004640</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏节能环保股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3498</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010676</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>光大保德信新机遇混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2769</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011455</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长城竞争优势六个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12.08</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>32.24</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2513</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008313</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>光大保德信研究精选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1578</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>260111</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>景顺长城公司治理混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.15</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1219</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011456</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>长城竞争优势六个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>32.24</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003501</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>泰达宏利睿智稳健灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>86.46</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
